--- a/Documents/db.xlsx
+++ b/Documents/db.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="7248"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,16 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
-  <si>
-    <t>Tài khoản</t>
-  </si>
-  <si>
-    <t>Video</t>
-  </si>
-  <si>
-    <t>Tham số</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="55">
   <si>
     <t>tai_khoan</t>
   </si>
@@ -31,9 +22,6 @@
     <t>mat_khau</t>
   </si>
   <si>
-    <t>Thông tin kê khai</t>
-  </si>
-  <si>
     <t>Bật camera =&gt; ghi hình =&gt; xem lại thông tin =&gt; Kê khai =&gt; ghi đĩa =&gt; Gửi online</t>
   </si>
   <si>
@@ -67,12 +55,6 @@
     <t>created_date</t>
   </si>
   <si>
-    <t>zip_date</t>
-  </si>
-  <si>
-    <t>zip_count</t>
-  </si>
-  <si>
     <t>tai_khoan_id</t>
   </si>
   <si>
@@ -91,9 +73,6 @@
     <t>Tạo folder chứa filezip + key</t>
   </si>
   <si>
-    <t>is_sync</t>
-  </si>
-  <si>
     <t>ten_dieu_tra</t>
   </si>
   <si>
@@ -112,12 +91,6 @@
     <t>giay_phep</t>
   </si>
   <si>
-    <t>ZipFile</t>
-  </si>
-  <si>
-    <t>LK_Video_Zip</t>
-  </si>
-  <si>
     <t>ghi đĩa</t>
   </si>
   <si>
@@ -125,6 +98,87 @@
   </si>
   <si>
     <t>thong tin video</t>
+  </si>
+  <si>
+    <t>zip_id</t>
+  </si>
+  <si>
+    <t>file_name</t>
+  </si>
+  <si>
+    <t>last_burn</t>
+  </si>
+  <si>
+    <t>zipfile</t>
+  </si>
+  <si>
+    <t>video</t>
+  </si>
+  <si>
+    <t>kekhai</t>
+  </si>
+  <si>
+    <t>taikhoan</t>
+  </si>
+  <si>
+    <t>thamso</t>
+  </si>
+  <si>
+    <t>lkvideozip</t>
+  </si>
+  <si>
+    <t>zipfiledetail</t>
+  </si>
+  <si>
+    <t>zip_detail_id</t>
+  </si>
+  <si>
+    <t>path_file</t>
+  </si>
+  <si>
+    <t>path_name</t>
+  </si>
+  <si>
+    <t>is_burn</t>
+  </si>
+  <si>
+    <t>file_size</t>
+  </si>
+  <si>
+    <t>,ten_dieu_tra</t>
+  </si>
+  <si>
+    <t>,don_vi</t>
+  </si>
+  <si>
+    <t>,ten_doi_tuong</t>
+  </si>
+  <si>
+    <t>,dia_diem</t>
+  </si>
+  <si>
+    <t>,ten_vu_an</t>
+  </si>
+  <si>
+    <t>,ghi_chu</t>
+  </si>
+  <si>
+    <t>,giay_phep</t>
+  </si>
+  <si>
+    <t>,created_date</t>
+  </si>
+  <si>
+    <t>thoi_gian_ghi_hinh</t>
+  </si>
+  <si>
+    <t>kich_co</t>
+  </si>
+  <si>
+    <t>do_phan_giai</t>
+  </si>
+  <si>
+    <t>tỉ lệ khung hình</t>
   </si>
 </sst>
 </file>
@@ -140,12 +194,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -160,9 +220,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -467,10 +528,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:P17"/>
+  <dimension ref="B1:Q18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -488,148 +549,261 @@
     <col min="16" max="16" width="9.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" t="s">
+        <v>12</v>
+      </c>
+      <c r="M4" t="s">
+        <v>13</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O4" t="s">
+        <v>52</v>
+      </c>
+      <c r="P4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
         <v>1</v>
       </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="G7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7" t="s">
+        <v>4</v>
+      </c>
+      <c r="I7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" t="s">
         <v>15</v>
       </c>
-      <c r="K3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L3" t="s">
+      <c r="K8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="K9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="K10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="K11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="K12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="K13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="K14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="K15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" t="s">
+        <v>25</v>
+      </c>
+      <c r="K16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
         <v>17</v>
       </c>
-      <c r="M3" t="s">
-        <v>18</v>
-      </c>
-      <c r="N3" t="s">
-        <v>25</v>
-      </c>
-      <c r="O3" t="s">
-        <v>19</v>
-      </c>
-      <c r="P3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="F17" t="s">
         <v>26</v>
       </c>
-      <c r="F4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" t="s">
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="F18" t="s">
         <v>27</v>
       </c>
-      <c r="H4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I4" t="s">
-        <v>29</v>
-      </c>
-      <c r="J4" t="s">
-        <v>30</v>
-      </c>
-      <c r="K4" t="s">
-        <v>31</v>
-      </c>
-      <c r="L4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
+      <c r="H18" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="1"/>
-    </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="F15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
-        <v>23</v>
-      </c>
-      <c r="F16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F17" t="s">
-        <v>36</v>
+      <c r="I18" t="s">
+        <v>43</v>
+      </c>
+      <c r="J18" t="s">
+        <v>44</v>
+      </c>
+      <c r="K18" t="s">
+        <v>45</v>
+      </c>
+      <c r="L18" t="s">
+        <v>46</v>
+      </c>
+      <c r="M18" t="s">
+        <v>47</v>
+      </c>
+      <c r="N18" t="s">
+        <v>48</v>
+      </c>
+      <c r="O18" t="s">
+        <v>49</v>
+      </c>
+      <c r="P18" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/db.xlsx
+++ b/Documents/db.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="80">
   <si>
     <t>tai_khoan</t>
   </si>
@@ -112,9 +112,6 @@
     <t>zipfile</t>
   </si>
   <si>
-    <t>video</t>
-  </si>
-  <si>
     <t>kekhai</t>
   </si>
   <si>
@@ -124,9 +121,6 @@
     <t>thamso</t>
   </si>
   <si>
-    <t>lkvideozip</t>
-  </si>
-  <si>
     <t>zipfiledetail</t>
   </si>
   <si>
@@ -178,7 +172,88 @@
     <t>do_phan_giai</t>
   </si>
   <si>
-    <t>tỉ lệ khung hình</t>
+    <t>lkvideokekhai</t>
+  </si>
+  <si>
+    <t>ti_le_khung_hinh</t>
+  </si>
+  <si>
+    <t>,ke_khai_id</t>
+  </si>
+  <si>
+    <t>,file_path</t>
+  </si>
+  <si>
+    <t>,file_name</t>
+  </si>
+  <si>
+    <t>,camera_name</t>
+  </si>
+  <si>
+    <t>,camera_id</t>
+  </si>
+  <si>
+    <t>,audio_name</t>
+  </si>
+  <si>
+    <t>,audio_id</t>
+  </si>
+  <si>
+    <t>,tai_khoan_id</t>
+  </si>
+  <si>
+    <t>,thoi_gian_ghi_hinh</t>
+  </si>
+  <si>
+    <t>,kich_co</t>
+  </si>
+  <si>
+    <t>,do_phan_giai</t>
+  </si>
+  <si>
+    <t>,ti_le_khung_hinh</t>
+  </si>
+  <si>
+    <t>='{}', ke_khai_id</t>
+  </si>
+  <si>
+    <t>='{}', file_path</t>
+  </si>
+  <si>
+    <t>='{}', file_name</t>
+  </si>
+  <si>
+    <t>='{}', camera_name</t>
+  </si>
+  <si>
+    <t>='{}', camera_id</t>
+  </si>
+  <si>
+    <t>='{}', audio_name</t>
+  </si>
+  <si>
+    <t>='{}', audio_id</t>
+  </si>
+  <si>
+    <t>='{}', created_date</t>
+  </si>
+  <si>
+    <t>='{}', tai_khoan_id</t>
+  </si>
+  <si>
+    <t>='{}', thoi_gian_ghi_hinh</t>
+  </si>
+  <si>
+    <t>='{}', kich_co</t>
+  </si>
+  <si>
+    <t>='{}', do_phan_giai</t>
+  </si>
+  <si>
+    <t>='{}', ti_le_khung_hinh</t>
+  </si>
+  <si>
+    <t>videos</t>
   </si>
 </sst>
 </file>
@@ -528,10 +603,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:Q18"/>
+  <dimension ref="B1:R50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -544,17 +619,18 @@
     <col min="9" max="9" width="11.109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.77734375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.109375" customWidth="1"/>
+    <col min="14" max="14" width="16.6640625" customWidth="1"/>
+    <col min="15" max="15" width="9.33203125" customWidth="1"/>
+    <col min="16" max="16" width="12.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="D1" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="E1" t="s">
         <v>14</v>
@@ -562,129 +638,118 @@
     </row>
     <row r="2" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" t="s">
+      <c r="M2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" t="s">
-        <v>30</v>
+      <c r="N2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O2" t="s">
+        <v>50</v>
+      </c>
+      <c r="P2" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D3" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="G3" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="H3" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="I3" t="s">
-        <v>41</v>
+        <v>22</v>
+      </c>
+      <c r="J3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" t="s">
+        <v>13</v>
+      </c>
+      <c r="N3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="F4" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="G4" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H4" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="I4" t="s">
-        <v>9</v>
-      </c>
-      <c r="J4" t="s">
-        <v>10</v>
-      </c>
-      <c r="K4" t="s">
-        <v>11</v>
-      </c>
-      <c r="L4" t="s">
-        <v>12</v>
-      </c>
-      <c r="M4" t="s">
-        <v>13</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="O4" t="s">
-        <v>52</v>
-      </c>
-      <c r="P4" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I5" t="s">
-        <v>22</v>
-      </c>
-      <c r="J5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K5" t="s">
-        <v>24</v>
-      </c>
-      <c r="L5" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D7" t="s">
         <v>13</v>
@@ -707,7 +772,7 @@
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D8" t="s">
         <v>15</v>
@@ -717,18 +782,33 @@
       </c>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="K9" t="s">
-        <v>43</v>
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.3">
       <c r="K10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.3">
       <c r="K11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.3">
@@ -737,22 +817,22 @@
       </c>
       <c r="C12" s="1"/>
       <c r="K12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.3">
       <c r="K13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.3">
       <c r="K14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.3">
       <c r="K15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.3">
@@ -763,10 +843,10 @@
         <v>25</v>
       </c>
       <c r="K16" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>17</v>
       </c>
@@ -774,7 +854,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:18" x14ac:dyDescent="0.3">
       <c r="F18" t="s">
         <v>27</v>
       </c>
@@ -782,31 +862,339 @@
         <v>6</v>
       </c>
       <c r="I18" t="s">
+        <v>41</v>
+      </c>
+      <c r="J18" t="s">
+        <v>42</v>
+      </c>
+      <c r="K18" t="s">
         <v>43</v>
       </c>
-      <c r="J18" t="s">
+      <c r="L18" t="s">
         <v>44</v>
       </c>
-      <c r="K18" t="s">
+      <c r="M18" t="s">
         <v>45</v>
       </c>
-      <c r="L18" t="s">
+      <c r="N18" t="s">
         <v>46</v>
       </c>
-      <c r="M18" t="s">
+      <c r="O18" t="s">
         <v>47</v>
       </c>
-      <c r="N18" t="s">
+      <c r="P18" t="s">
         <v>48</v>
       </c>
-      <c r="O18" t="s">
+    </row>
+    <row r="20" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="C20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="C21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="C22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="C23" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E23" t="s">
+        <v>6</v>
+      </c>
+      <c r="F23" t="s">
+        <v>7</v>
+      </c>
+      <c r="G23" t="s">
+        <v>29</v>
+      </c>
+      <c r="H23" t="s">
+        <v>8</v>
+      </c>
+      <c r="I23" t="s">
+        <v>9</v>
+      </c>
+      <c r="J23" t="s">
+        <v>10</v>
+      </c>
+      <c r="K23" t="s">
+        <v>11</v>
+      </c>
+      <c r="L23" t="s">
+        <v>12</v>
+      </c>
+      <c r="M23" t="s">
+        <v>13</v>
+      </c>
+      <c r="N23" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="P18" t="s">
+      <c r="O23" t="s">
         <v>50</v>
+      </c>
+      <c r="P23" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="C24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="C25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="C26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="C27" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" t="s">
+        <v>60</v>
+      </c>
+      <c r="E27" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" t="s">
+        <v>54</v>
+      </c>
+      <c r="G27" t="s">
+        <v>55</v>
+      </c>
+      <c r="H27" t="s">
+        <v>56</v>
+      </c>
+      <c r="I27" t="s">
+        <v>57</v>
+      </c>
+      <c r="J27" t="s">
+        <v>58</v>
+      </c>
+      <c r="K27" t="s">
+        <v>59</v>
+      </c>
+      <c r="L27" t="s">
+        <v>60</v>
+      </c>
+      <c r="M27" t="s">
+        <v>48</v>
+      </c>
+      <c r="N27" t="s">
+        <v>61</v>
+      </c>
+      <c r="O27" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="P27" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>64</v>
+      </c>
+      <c r="R27" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="C28" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="C29" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="C30" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="C31" t="s">
+        <v>50</v>
+      </c>
+      <c r="D31" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="C32" t="s">
+        <v>51</v>
+      </c>
+      <c r="D32" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C33" t="s">
+        <v>53</v>
+      </c>
+      <c r="D33" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="E35" t="s">
+        <v>14</v>
+      </c>
+      <c r="F35" t="s">
+        <v>66</v>
+      </c>
+      <c r="G35" t="s">
+        <v>67</v>
+      </c>
+      <c r="H35" t="s">
+        <v>68</v>
+      </c>
+      <c r="I35" t="s">
+        <v>69</v>
+      </c>
+      <c r="J35" t="s">
+        <v>70</v>
+      </c>
+      <c r="K35" t="s">
+        <v>71</v>
+      </c>
+      <c r="L35" t="s">
+        <v>72</v>
+      </c>
+      <c r="M35" t="s">
+        <v>73</v>
+      </c>
+      <c r="N35" t="s">
+        <v>74</v>
+      </c>
+      <c r="O35" t="s">
+        <v>75</v>
+      </c>
+      <c r="P35" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>77</v>
+      </c>
+      <c r="R35" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="37" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C37" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C38" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="39" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C39" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="40" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C40" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C41" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="42" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C42" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C43" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="44" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C44" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="45" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C45" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="46" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C46" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="47" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C47" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="48" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C48" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="49" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C49" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="50" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C50" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Documents/db.xlsx
+++ b/Documents/db.xlsx
@@ -606,7 +606,7 @@
   <dimension ref="B1:R50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Documents/db.xlsx
+++ b/Documents/db.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="80">
   <si>
     <t>tai_khoan</t>
   </si>
@@ -127,12 +127,6 @@
     <t>zip_detail_id</t>
   </si>
   <si>
-    <t>path_file</t>
-  </si>
-  <si>
-    <t>path_name</t>
-  </si>
-  <si>
     <t>is_burn</t>
   </si>
   <si>
@@ -254,6 +248,12 @@
   </si>
   <si>
     <t>videos</t>
+  </si>
+  <si>
+    <t>zip_path</t>
+  </si>
+  <si>
+    <t>folder_path</t>
   </si>
 </sst>
 </file>
@@ -605,8 +605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -627,7 +627,7 @@
   <sheetData>
     <row r="1" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D1" t="s">
         <v>6</v>
@@ -638,7 +638,7 @@
     </row>
     <row r="2" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D2" t="s">
         <v>14</v>
@@ -671,16 +671,16 @@
         <v>13</v>
       </c>
       <c r="N2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O2" t="s">
+        <v>48</v>
+      </c>
+      <c r="P2" t="s">
         <v>49</v>
       </c>
-      <c r="O2" t="s">
-        <v>50</v>
-      </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>51</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.3">
@@ -723,6 +723,12 @@
       <c r="O3" t="s">
         <v>30</v>
       </c>
+      <c r="P3" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
@@ -735,16 +741,16 @@
         <v>28</v>
       </c>
       <c r="F4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" t="s">
         <v>37</v>
-      </c>
-      <c r="G4" t="s">
-        <v>38</v>
-      </c>
-      <c r="H4" t="s">
-        <v>40</v>
-      </c>
-      <c r="I4" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.3">
@@ -803,12 +809,12 @@
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.3">
       <c r="K10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.3">
       <c r="K11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.3">
@@ -817,22 +823,22 @@
       </c>
       <c r="C12" s="1"/>
       <c r="K12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.3">
       <c r="K13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.3">
       <c r="K14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.3">
       <c r="K15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.3">
@@ -843,7 +849,7 @@
         <v>25</v>
       </c>
       <c r="K16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.3">
@@ -862,28 +868,28 @@
         <v>6</v>
       </c>
       <c r="I18" t="s">
+        <v>39</v>
+      </c>
+      <c r="J18" t="s">
+        <v>40</v>
+      </c>
+      <c r="K18" t="s">
         <v>41</v>
       </c>
-      <c r="J18" t="s">
+      <c r="L18" t="s">
         <v>42</v>
       </c>
-      <c r="K18" t="s">
+      <c r="M18" t="s">
         <v>43</v>
       </c>
-      <c r="L18" t="s">
+      <c r="N18" t="s">
         <v>44</v>
       </c>
-      <c r="M18" t="s">
+      <c r="O18" t="s">
         <v>45</v>
       </c>
-      <c r="N18" t="s">
+      <c r="P18" t="s">
         <v>46</v>
-      </c>
-      <c r="O18" t="s">
-        <v>47</v>
-      </c>
-      <c r="P18" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.3">
@@ -899,7 +905,7 @@
         <v>6</v>
       </c>
       <c r="D21" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.3">
@@ -907,7 +913,7 @@
         <v>7</v>
       </c>
       <c r="D22" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.3">
@@ -915,7 +921,7 @@
         <v>29</v>
       </c>
       <c r="D23" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E23" t="s">
         <v>6</v>
@@ -945,16 +951,16 @@
         <v>13</v>
       </c>
       <c r="N23" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O23" t="s">
+        <v>48</v>
+      </c>
+      <c r="P23" t="s">
         <v>49</v>
       </c>
-      <c r="O23" t="s">
-        <v>50</v>
-      </c>
-      <c r="P23" t="s">
+      <c r="Q23" t="s">
         <v>51</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.3">
@@ -962,7 +968,7 @@
         <v>8</v>
       </c>
       <c r="D24" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.3">
@@ -970,7 +976,7 @@
         <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.3">
@@ -978,7 +984,7 @@
         <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.3">
@@ -986,49 +992,49 @@
         <v>11</v>
       </c>
       <c r="D27" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E27" t="s">
         <v>14</v>
       </c>
       <c r="F27" t="s">
+        <v>52</v>
+      </c>
+      <c r="G27" t="s">
+        <v>53</v>
+      </c>
+      <c r="H27" t="s">
         <v>54</v>
       </c>
-      <c r="G27" t="s">
+      <c r="I27" t="s">
         <v>55</v>
       </c>
-      <c r="H27" t="s">
+      <c r="J27" t="s">
         <v>56</v>
       </c>
-      <c r="I27" t="s">
+      <c r="K27" t="s">
         <v>57</v>
       </c>
-      <c r="J27" t="s">
+      <c r="L27" t="s">
         <v>58</v>
       </c>
-      <c r="K27" t="s">
+      <c r="M27" t="s">
+        <v>46</v>
+      </c>
+      <c r="N27" t="s">
         <v>59</v>
       </c>
-      <c r="L27" t="s">
+      <c r="O27" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="M27" t="s">
-        <v>48</v>
-      </c>
-      <c r="N27" t="s">
+      <c r="P27" t="s">
         <v>61</v>
       </c>
-      <c r="O27" s="2" t="s">
+      <c r="Q27" t="s">
         <v>62</v>
       </c>
-      <c r="P27" t="s">
+      <c r="R27" t="s">
         <v>63</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>64</v>
-      </c>
-      <c r="R27" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.3">
@@ -1036,7 +1042,7 @@
         <v>12</v>
       </c>
       <c r="D28" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.3">
@@ -1044,39 +1050,39 @@
         <v>13</v>
       </c>
       <c r="D29" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" spans="2:18" x14ac:dyDescent="0.3">
       <c r="C30" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D31" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D32" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="33" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D33" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" spans="3:18" x14ac:dyDescent="0.3">
@@ -1084,43 +1090,43 @@
         <v>14</v>
       </c>
       <c r="F35" t="s">
+        <v>64</v>
+      </c>
+      <c r="G35" t="s">
+        <v>65</v>
+      </c>
+      <c r="H35" t="s">
         <v>66</v>
       </c>
-      <c r="G35" t="s">
+      <c r="I35" t="s">
         <v>67</v>
       </c>
-      <c r="H35" t="s">
+      <c r="J35" t="s">
         <v>68</v>
       </c>
-      <c r="I35" t="s">
+      <c r="K35" t="s">
         <v>69</v>
       </c>
-      <c r="J35" t="s">
+      <c r="L35" t="s">
         <v>70</v>
       </c>
-      <c r="K35" t="s">
+      <c r="M35" t="s">
         <v>71</v>
       </c>
-      <c r="L35" t="s">
+      <c r="N35" t="s">
         <v>72</v>
       </c>
-      <c r="M35" t="s">
+      <c r="O35" t="s">
         <v>73</v>
       </c>
-      <c r="N35" t="s">
+      <c r="P35" t="s">
         <v>74</v>
       </c>
-      <c r="O35" t="s">
+      <c r="Q35" t="s">
         <v>75</v>
       </c>
-      <c r="P35" t="s">
+      <c r="R35" t="s">
         <v>76</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>77</v>
-      </c>
-      <c r="R35" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="37" spans="3:18" x14ac:dyDescent="0.3">
@@ -1130,67 +1136,67 @@
     </row>
     <row r="38" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="39" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="40" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="41" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="42" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="43" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="44" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="45" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="46" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="47" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="48" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="49" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="50" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
